--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2319.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2319.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.03180547701031</v>
+        <v>1.308902025222778</v>
       </c>
       <c r="B1">
-        <v>1.960538573916913</v>
+        <v>1.867549657821655</v>
       </c>
       <c r="C1">
-        <v>1.243022637924308</v>
+        <v>1.74571681022644</v>
       </c>
       <c r="D1">
-        <v>1.065463628972303</v>
+        <v>1.693768501281738</v>
       </c>
       <c r="E1">
-        <v>1.024325639743586</v>
+        <v>1.166829586029053</v>
       </c>
     </row>
   </sheetData>
